--- a/game-manage/src/main/resources/biz_config/guanqia.xlsx
+++ b/game-manage/src/main/resources/biz_config/guanqia.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D434C392-E562-8541-AF41-0C5838F775AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -215,8 +216,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -974,42 +975,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.75" style="2" customWidth="1"/>
-    <col min="21" max="21" width="8.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8" style="1" customWidth="1"/>
     <col min="23" max="23" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.25" style="2" customWidth="1"/>
+    <col min="24" max="24" width="8.1640625" style="2" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1083,7 +1084,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24">
       <c r="A2" s="29">
         <v>1</v>
       </c>
@@ -1091,7 +1092,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="32">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D2" s="35">
         <v>3</v>
@@ -1121,7 +1122,7 @@
         <v>0.2</v>
       </c>
       <c r="M2" s="13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N2" s="13">
         <v>0</v>
@@ -1154,10 +1155,10 @@
         <v>28</v>
       </c>
       <c r="X2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" s="29">
         <v>2</v>
       </c>
@@ -1231,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -1305,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5" s="29">
         <v>4</v>
       </c>
@@ -1379,7 +1380,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24">
       <c r="A6" s="29">
         <v>5</v>
       </c>
@@ -1413,7 +1414,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24">
       <c r="A7" s="29">
         <v>6</v>
       </c>
@@ -1447,7 +1448,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24">
       <c r="A8" s="29">
         <v>7</v>
       </c>
@@ -1481,7 +1482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24">
       <c r="A9" s="29">
         <v>8</v>
       </c>
@@ -1515,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24">
       <c r="A10" s="29">
         <v>9</v>
       </c>
@@ -1549,7 +1550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24">
       <c r="A11" s="29">
         <v>10</v>
       </c>
@@ -1583,7 +1584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24">
       <c r="A12" s="29">
         <v>11</v>
       </c>
@@ -1617,7 +1618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24">
       <c r="A13" s="29">
         <v>12</v>
       </c>
@@ -1651,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24">
       <c r="A14" s="29">
         <v>13</v>
       </c>
@@ -1685,7 +1686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24">
       <c r="A15" s="29">
         <v>14</v>
       </c>
@@ -1719,7 +1720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24">
       <c r="A16" s="29">
         <v>15</v>
       </c>
@@ -1753,7 +1754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24">
       <c r="A17" s="29">
         <v>16</v>
       </c>
@@ -1787,7 +1788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24">
       <c r="A18" s="29">
         <v>17</v>
       </c>
@@ -1821,7 +1822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24">
       <c r="A19" s="29">
         <v>18</v>
       </c>
@@ -1855,7 +1856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="13" thickBot="1">
       <c r="A20" s="29">
         <v>19</v>
       </c>
